--- a/code/functions/Projects.xlsx
+++ b/code/functions/Projects.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\csiem-data\code\actions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\csiem-data\code\functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77E47A2-46D0-4D35-AC1C-76386D3775B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57CBE2D-D838-4B49-ADD2-CEED8AD33AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="1110" windowWidth="28785" windowHeight="15090" xr2:uid="{1752FA05-084F-4C8E-9E39-6850F815556A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" xr2:uid="{1752FA05-084F-4C8E-9E39-6850F815556A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="11">
   <si>
     <t>CANEST</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>Lon</t>
+  </si>
+  <si>
+    <t>PHESTREACH</t>
+  </si>
+  <si>
+    <t>MURHAR</t>
   </si>
 </sst>
 </file>
@@ -413,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063DFC5A-6431-479A-AF53-D4E145D4893A}">
-  <dimension ref="A1:D172"/>
+  <dimension ref="A1:D219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="C210" sqref="C210:D219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2830,6 +2836,664 @@
       </c>
       <c r="D172">
         <v>115.746723092</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>6131321</v>
+      </c>
+      <c r="B173" t="s">
+        <v>9</v>
+      </c>
+      <c r="C173">
+        <v>-32.683229892999996</v>
+      </c>
+      <c r="D173">
+        <v>115.677045987</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>6131322</v>
+      </c>
+      <c r="B174" t="s">
+        <v>9</v>
+      </c>
+      <c r="C174">
+        <v>-32.730049614000002</v>
+      </c>
+      <c r="D174">
+        <v>115.694912809</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>6131323</v>
+      </c>
+      <c r="B175" t="s">
+        <v>9</v>
+      </c>
+      <c r="C175">
+        <v>-32.633259897999999</v>
+      </c>
+      <c r="D175">
+        <v>115.660918123</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>6140029</v>
+      </c>
+      <c r="B176" t="s">
+        <v>9</v>
+      </c>
+      <c r="C176">
+        <v>-32.603614301999997</v>
+      </c>
+      <c r="D176">
+        <v>115.67139775</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>6140030</v>
+      </c>
+      <c r="B177" t="s">
+        <v>9</v>
+      </c>
+      <c r="C177">
+        <v>-32.575731363999999</v>
+      </c>
+      <c r="D177">
+        <v>115.75488145200001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>6140031</v>
+      </c>
+      <c r="B178" t="s">
+        <v>9</v>
+      </c>
+      <c r="C178">
+        <v>-32.591791919999999</v>
+      </c>
+      <c r="D178">
+        <v>115.713264659</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>6140201</v>
+      </c>
+      <c r="B179" t="s">
+        <v>9</v>
+      </c>
+      <c r="C179">
+        <v>-32.577366538</v>
+      </c>
+      <c r="D179">
+        <v>115.66877089400001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>6140211</v>
+      </c>
+      <c r="B180" t="s">
+        <v>9</v>
+      </c>
+      <c r="C180">
+        <v>-32.557176578000004</v>
+      </c>
+      <c r="D180">
+        <v>115.703530882</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>6140251</v>
+      </c>
+      <c r="B181" t="s">
+        <v>9</v>
+      </c>
+      <c r="C181">
+        <v>-32.556796446</v>
+      </c>
+      <c r="D181">
+        <v>115.70979087400001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>6140252</v>
+      </c>
+      <c r="B182" t="s">
+        <v>9</v>
+      </c>
+      <c r="C182">
+        <v>-32.524996362000003</v>
+      </c>
+      <c r="D182">
+        <v>115.728720881</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>6140253</v>
+      </c>
+      <c r="B183" t="s">
+        <v>9</v>
+      </c>
+      <c r="C183">
+        <v>-32.517456267</v>
+      </c>
+      <c r="D183">
+        <v>115.76738084599999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>6140263</v>
+      </c>
+      <c r="B184" t="s">
+        <v>9</v>
+      </c>
+      <c r="C184">
+        <v>-32.522624602999997</v>
+      </c>
+      <c r="D184">
+        <v>115.810564888</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>6140264</v>
+      </c>
+      <c r="B185" t="s">
+        <v>9</v>
+      </c>
+      <c r="C185">
+        <v>-32.420580723999997</v>
+      </c>
+      <c r="D185">
+        <v>115.824533003</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>6140953</v>
+      </c>
+      <c r="B186" t="s">
+        <v>9</v>
+      </c>
+      <c r="C186">
+        <v>-32.592101</v>
+      </c>
+      <c r="D186">
+        <v>115.82143227500001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>6141384</v>
+      </c>
+      <c r="B187" t="s">
+        <v>9</v>
+      </c>
+      <c r="C187">
+        <v>-32.592712567</v>
+      </c>
+      <c r="D187">
+        <v>115.91642643599999</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>6141499</v>
+      </c>
+      <c r="B188" t="s">
+        <v>9</v>
+      </c>
+      <c r="C188">
+        <v>-32.341144417999999</v>
+      </c>
+      <c r="D188">
+        <v>115.837744847</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>6142510</v>
+      </c>
+      <c r="B189" t="s">
+        <v>9</v>
+      </c>
+      <c r="C189">
+        <v>-32.325555889</v>
+      </c>
+      <c r="D189">
+        <v>115.82789413</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>6142623</v>
+      </c>
+      <c r="B190" t="s">
+        <v>9</v>
+      </c>
+      <c r="C190">
+        <v>-32.585123037999999</v>
+      </c>
+      <c r="D190">
+        <v>115.882050789</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>6142624</v>
+      </c>
+      <c r="B191" t="s">
+        <v>9</v>
+      </c>
+      <c r="C191">
+        <v>-32.581393855999998</v>
+      </c>
+      <c r="D191">
+        <v>115.78729264099999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>6142625</v>
+      </c>
+      <c r="B192" t="s">
+        <v>9</v>
+      </c>
+      <c r="C192">
+        <v>-32.585891463999999</v>
+      </c>
+      <c r="D192">
+        <v>115.82701867500001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>6142627</v>
+      </c>
+      <c r="B193" t="s">
+        <v>9</v>
+      </c>
+      <c r="C193">
+        <v>-32.543315507999999</v>
+      </c>
+      <c r="D193">
+        <v>115.767980646</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>6142628</v>
+      </c>
+      <c r="B194" t="s">
+        <v>9</v>
+      </c>
+      <c r="C194">
+        <v>-32.510055694999998</v>
+      </c>
+      <c r="D194">
+        <v>115.78631854</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>6142629</v>
+      </c>
+      <c r="B195" t="s">
+        <v>9</v>
+      </c>
+      <c r="C195">
+        <v>-32.471208115000003</v>
+      </c>
+      <c r="D195">
+        <v>115.80803621299999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>6142855</v>
+      </c>
+      <c r="B196" t="s">
+        <v>9</v>
+      </c>
+      <c r="C196">
+        <v>-32.585842372999998</v>
+      </c>
+      <c r="D196">
+        <v>115.834150286</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>6143035</v>
+      </c>
+      <c r="B197" t="s">
+        <v>9</v>
+      </c>
+      <c r="C197">
+        <v>-32.39898659</v>
+      </c>
+      <c r="D197">
+        <v>115.831010748</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>6143036</v>
+      </c>
+      <c r="B198" t="s">
+        <v>9</v>
+      </c>
+      <c r="C198">
+        <v>-32.399486592000002</v>
+      </c>
+      <c r="D198">
+        <v>115.83101078999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>6144122</v>
+      </c>
+      <c r="B199" t="s">
+        <v>9</v>
+      </c>
+      <c r="C199">
+        <v>-32.401982590999999</v>
+      </c>
+      <c r="D199">
+        <v>115.830979756</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>6144201</v>
+      </c>
+      <c r="B200" t="s">
+        <v>9</v>
+      </c>
+      <c r="C200">
+        <v>-32.383110637999998</v>
+      </c>
+      <c r="D200">
+        <v>115.83404376599999</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>6144405</v>
+      </c>
+      <c r="B201" t="s">
+        <v>9</v>
+      </c>
+      <c r="C201">
+        <v>-32.398546482</v>
+      </c>
+      <c r="D201">
+        <v>115.831360769</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>6144406</v>
+      </c>
+      <c r="B202" t="s">
+        <v>9</v>
+      </c>
+      <c r="C202">
+        <v>-32.406356590999998</v>
+      </c>
+      <c r="D202">
+        <v>115.82655073799999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>6144458</v>
+      </c>
+      <c r="B203" t="s">
+        <v>9</v>
+      </c>
+      <c r="C203">
+        <v>-32.382962280999998</v>
+      </c>
+      <c r="D203">
+        <v>115.83371246900001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>6144459</v>
+      </c>
+      <c r="B204" t="s">
+        <v>9</v>
+      </c>
+      <c r="C204">
+        <v>-32.382960117000003</v>
+      </c>
+      <c r="D204">
+        <v>115.833478626</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>6144460</v>
+      </c>
+      <c r="B205" t="s">
+        <v>9</v>
+      </c>
+      <c r="C205">
+        <v>-32.382958051000003</v>
+      </c>
+      <c r="D205">
+        <v>115.833255412</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>6144461</v>
+      </c>
+      <c r="B206" t="s">
+        <v>9</v>
+      </c>
+      <c r="C206">
+        <v>-32.382955885999998</v>
+      </c>
+      <c r="D206">
+        <v>115.83302156800001</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>6144462</v>
+      </c>
+      <c r="B207" t="s">
+        <v>9</v>
+      </c>
+      <c r="C207">
+        <v>-32.382953721</v>
+      </c>
+      <c r="D207">
+        <v>115.832787725</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>6144463</v>
+      </c>
+      <c r="B208" t="s">
+        <v>9</v>
+      </c>
+      <c r="C208">
+        <v>-32.382951751999997</v>
+      </c>
+      <c r="D208">
+        <v>115.83257514100001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>6144464</v>
+      </c>
+      <c r="B209" t="s">
+        <v>9</v>
+      </c>
+      <c r="C209">
+        <v>-32.383054047999998</v>
+      </c>
+      <c r="D209">
+        <v>115.833881378</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>613027</v>
+      </c>
+      <c r="B210" t="s">
+        <v>10</v>
+      </c>
+      <c r="C210">
+        <v>-32.767651692000001</v>
+      </c>
+      <c r="D210">
+        <v>115.772865565</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>613031</v>
+      </c>
+      <c r="B211" t="s">
+        <v>10</v>
+      </c>
+      <c r="C211">
+        <v>-32.801973171</v>
+      </c>
+      <c r="D211">
+        <v>115.745662147</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>614003</v>
+      </c>
+      <c r="B212" t="s">
+        <v>10</v>
+      </c>
+      <c r="C212">
+        <v>-32.702721656999998</v>
+      </c>
+      <c r="D212">
+        <v>115.970873451</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>614063</v>
+      </c>
+      <c r="B213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C213">
+        <v>-32.523329580999999</v>
+      </c>
+      <c r="D213">
+        <v>115.829027818</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>614065</v>
+      </c>
+      <c r="B214" t="s">
+        <v>10</v>
+      </c>
+      <c r="C214">
+        <v>-32.633517185999999</v>
+      </c>
+      <c r="D214">
+        <v>115.878080775</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>614068</v>
+      </c>
+      <c r="B215" t="s">
+        <v>10</v>
+      </c>
+      <c r="C215">
+        <v>-32.513108594999999</v>
+      </c>
+      <c r="D215">
+        <v>115.97570100900001</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>614094</v>
+      </c>
+      <c r="B216" t="s">
+        <v>10</v>
+      </c>
+      <c r="C216">
+        <v>-32.420875113000001</v>
+      </c>
+      <c r="D216">
+        <v>115.871361698</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>614120</v>
+      </c>
+      <c r="B217" t="s">
+        <v>10</v>
+      </c>
+      <c r="C217">
+        <v>-32.482329077000003</v>
+      </c>
+      <c r="D217">
+        <v>115.819023402</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>614121</v>
+      </c>
+      <c r="B218" t="s">
+        <v>10</v>
+      </c>
+      <c r="C218">
+        <v>-32.374179646999998</v>
+      </c>
+      <c r="D218">
+        <v>115.835047644</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>614131</v>
+      </c>
+      <c r="B219" t="s">
+        <v>10</v>
+      </c>
+      <c r="C219">
+        <v>-32.380800866000001</v>
+      </c>
+      <c r="D219">
+        <v>115.834091028</v>
       </c>
     </row>
   </sheetData>
